--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_13_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_13_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1646932.160298145</v>
+        <v>1625293.868201648</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11757867.36809479</v>
+        <v>11741909.79224365</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4174669.747902254</v>
+        <v>4173076.052327599</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9101828.329351716</v>
+        <v>9104481.958157243</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,67 +746,67 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F3" t="n">
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,34 +837,34 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="R4" t="n">
-        <v>6.056421089299432</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="G5" t="n">
-        <v>6.876045741711437</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>13.12181449592062</v>
       </c>
       <c r="I5" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>13.12181449592063</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.876045741711437</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6.876045741711437</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="K7" t="n">
-        <v>0.476426089663466</v>
+        <v>1.156181761725339</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.876045741711437</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>11.96563273419528</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.579994999635966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>133.8333590606436</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663202</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663202</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368126</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>28.33592091243878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>63.15312727816825</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714232</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>3.308154846007297</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553079</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845744</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>5.57332708602783</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>82.27797955586162</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.5619386713042</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>53.85366032725344</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1894753224704</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>195.0637242272979</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>155.8380202720393</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>39.32117841962531</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>128.2808324720649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>79.51342863308903</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>159.8642649222439</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>120.0553458037121</v>
       </c>
       <c r="C19" t="n">
-        <v>9.908902023989429</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>261.6839624475271</v>
       </c>
       <c r="E20" t="n">
-        <v>28.93382893561891</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2259,7 +2259,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>162.0442177339197</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>114.2656173771016</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>117.0340619339615</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>138.0957464459787</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396202</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>60.76903089633781</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>271.4703410066326</v>
       </c>
       <c r="D26" t="n">
-        <v>21.27902055890932</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>163.6898441249708</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>145.6878961026934</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>275.9285499140938</v>
+        <v>272.2738125978506</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>18.93482921065007</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>138.2708999730894</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>103.6446362310487</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>256.2418895442553</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>97.93776694713287</v>
       </c>
       <c r="W34" t="n">
-        <v>233.7508377871186</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>57.8993402389932</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>205.1127822067361</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>71.67037196991704</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>264.0026507753287</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>92.42092342598816</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>333.5426380090042</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>32.8332365913646</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>217.2854721480753</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>293.2388594828971</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>16.70871526400857</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>23.00042213872485</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>192.1675620474797</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>128.5903119004969</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.72965678626009</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6898441249709</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>151.7822816698217</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F2" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I2" t="n">
         <v>0.5500836593369149</v>
@@ -4333,19 +4333,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M2" t="n">
-        <v>1.921528796472203</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N2" t="n">
-        <v>8.728814080766526</v>
+        <v>15.53609936506085</v>
       </c>
       <c r="O2" t="n">
-        <v>15.53609936506085</v>
+        <v>22.34338464935517</v>
       </c>
       <c r="P2" t="n">
         <v>22.34338464935517</v>
@@ -4354,10 +4354,10 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R2" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S2" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T2" t="n">
         <v>20.55868221764227</v>
@@ -4369,13 +4369,13 @@
         <v>20.55868221764227</v>
       </c>
       <c r="W2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C3" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D3" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G3" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H3" t="n">
         <v>0.5500836593369149</v>
@@ -4409,52 +4409,52 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J3" t="n">
-        <v>6.856703976333826</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K3" t="n">
-        <v>13.66398926062815</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L3" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M3" t="n">
-        <v>20.69689768255142</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N3" t="n">
-        <v>27.50418296684575</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O3" t="n">
-        <v>27.50418296684575</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="P3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="Q3" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S3" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T3" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U3" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V3" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W3" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X3" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C4" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D4" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E4" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F4" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G4" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H4" t="n">
-        <v>14.44108515774386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
         <v>0.5500836593369149</v>
@@ -4509,31 +4509,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="R4" t="n">
         <v>20.55868221764227</v>
       </c>
-      <c r="R4" t="n">
-        <v>14.44108515774386</v>
-      </c>
       <c r="S4" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T4" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U4" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V4" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W4" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X4" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.50418296684575</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="C5" t="n">
-        <v>27.50418296684575</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="D5" t="n">
-        <v>27.50418296684575</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="E5" t="n">
-        <v>20.55868221764227</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="F5" t="n">
-        <v>13.6131814684388</v>
+        <v>29.49425730053077</v>
       </c>
       <c r="G5" t="n">
-        <v>6.667680719235332</v>
+        <v>14.44616684107629</v>
       </c>
       <c r="H5" t="n">
-        <v>6.667680719235332</v>
+        <v>1.191808764388794</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.191808764388794</v>
       </c>
       <c r="J5" t="n">
-        <v>7.357368943631237</v>
+        <v>15.94044222370013</v>
       </c>
       <c r="K5" t="n">
-        <v>7.357368943631237</v>
+        <v>15.94044222370013</v>
       </c>
       <c r="L5" t="n">
-        <v>7.357368943631237</v>
+        <v>30.68907568301146</v>
       </c>
       <c r="M5" t="n">
-        <v>13.8896123982571</v>
+        <v>30.68907568301146</v>
       </c>
       <c r="N5" t="n">
-        <v>20.69689768255142</v>
+        <v>30.68907568301146</v>
       </c>
       <c r="O5" t="n">
-        <v>20.69689768255142</v>
+        <v>30.68907568301146</v>
       </c>
       <c r="P5" t="n">
-        <v>20.69689768255142</v>
+        <v>45.43770914232279</v>
       </c>
       <c r="Q5" t="n">
-        <v>27.50418296684575</v>
+        <v>59.59043821943973</v>
       </c>
       <c r="R5" t="n">
-        <v>27.50418296684575</v>
+        <v>59.59043821943973</v>
       </c>
       <c r="S5" t="n">
-        <v>27.50418296684575</v>
+        <v>59.59043821943973</v>
       </c>
       <c r="T5" t="n">
-        <v>27.50418296684575</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="U5" t="n">
-        <v>27.50418296684575</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="V5" t="n">
-        <v>27.50418296684575</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="W5" t="n">
-        <v>27.50418296684575</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="X5" t="n">
-        <v>27.50418296684575</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="Y5" t="n">
-        <v>27.50418296684575</v>
+        <v>44.54234775998525</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.495584408540386</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="C6" t="n">
-        <v>7.495584408540386</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="D6" t="n">
-        <v>7.495584408540386</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="E6" t="n">
-        <v>7.495584408540386</v>
+        <v>31.28798968329775</v>
       </c>
       <c r="F6" t="n">
-        <v>7.495584408540386</v>
+        <v>16.23989922384327</v>
       </c>
       <c r="G6" t="n">
-        <v>7.495584408540386</v>
+        <v>16.23989922384327</v>
       </c>
       <c r="H6" t="n">
-        <v>7.495584408540386</v>
+        <v>16.23989922384327</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.191808764388794</v>
       </c>
       <c r="J6" t="n">
-        <v>7.357368943631237</v>
+        <v>15.94044222370013</v>
       </c>
       <c r="K6" t="n">
-        <v>7.357368943631237</v>
+        <v>30.68907568301146</v>
       </c>
       <c r="L6" t="n">
-        <v>7.357368943631237</v>
+        <v>45.43770914232279</v>
       </c>
       <c r="M6" t="n">
-        <v>7.357368943631237</v>
+        <v>45.43770914232279</v>
       </c>
       <c r="N6" t="n">
-        <v>13.8896123982571</v>
+        <v>45.43770914232279</v>
       </c>
       <c r="O6" t="n">
-        <v>20.69689768255142</v>
+        <v>45.43770914232279</v>
       </c>
       <c r="P6" t="n">
-        <v>20.69689768255142</v>
+        <v>59.59043821943973</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.50418296684575</v>
+        <v>59.59043821943973</v>
       </c>
       <c r="R6" t="n">
-        <v>27.50418296684575</v>
+        <v>59.59043821943973</v>
       </c>
       <c r="S6" t="n">
-        <v>27.50418296684575</v>
+        <v>59.59043821943973</v>
       </c>
       <c r="T6" t="n">
-        <v>20.55868221764227</v>
+        <v>59.59043821943973</v>
       </c>
       <c r="U6" t="n">
-        <v>20.55868221764227</v>
+        <v>59.59043821943973</v>
       </c>
       <c r="V6" t="n">
-        <v>20.55868221764227</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="W6" t="n">
-        <v>20.55868221764227</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="X6" t="n">
-        <v>14.44108515774386</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.495584408540386</v>
+        <v>44.54234775998525</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.9223236321514</v>
+        <v>17.4077595892224</v>
       </c>
       <c r="C7" t="n">
-        <v>7.976822882947928</v>
+        <v>17.4077595892224</v>
       </c>
       <c r="D7" t="n">
-        <v>7.976822882947928</v>
+        <v>17.4077595892224</v>
       </c>
       <c r="E7" t="n">
-        <v>7.976822882947928</v>
+        <v>17.4077595892224</v>
       </c>
       <c r="F7" t="n">
-        <v>7.976822882947928</v>
+        <v>17.4077595892224</v>
       </c>
       <c r="G7" t="n">
-        <v>7.976822882947928</v>
+        <v>17.4077595892224</v>
       </c>
       <c r="H7" t="n">
-        <v>7.976822882947928</v>
+        <v>17.4077595892224</v>
       </c>
       <c r="I7" t="n">
-        <v>7.976822882947928</v>
+        <v>17.4077595892224</v>
       </c>
       <c r="J7" t="n">
-        <v>1.031322133744456</v>
+        <v>2.359669129767925</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.191808764388794</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.191808764388794</v>
       </c>
       <c r="M7" t="n">
-        <v>7.082327113962777</v>
+        <v>15.94044222370013</v>
       </c>
       <c r="N7" t="n">
-        <v>13.8896123982571</v>
+        <v>30.68907568301146</v>
       </c>
       <c r="O7" t="n">
-        <v>20.69689768255142</v>
+        <v>44.8418047601284</v>
       </c>
       <c r="P7" t="n">
-        <v>27.50418296684575</v>
+        <v>59.59043821943973</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.55868221764227</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="R7" t="n">
-        <v>20.55868221764227</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="S7" t="n">
-        <v>20.55868221764227</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="T7" t="n">
-        <v>20.55868221764227</v>
+        <v>44.54234775998525</v>
       </c>
       <c r="U7" t="n">
-        <v>20.55868221764227</v>
+        <v>29.49425730053077</v>
       </c>
       <c r="V7" t="n">
-        <v>20.55868221764227</v>
+        <v>29.49425730053077</v>
       </c>
       <c r="W7" t="n">
-        <v>20.55868221764227</v>
+        <v>29.49425730053077</v>
       </c>
       <c r="X7" t="n">
-        <v>20.55868221764227</v>
+        <v>17.4077595892224</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.9223236321514</v>
+        <v>17.4077595892224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.0001061843515</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="C8" t="n">
-        <v>710.0001061843515</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="D8" t="n">
-        <v>520.5803211678664</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="E8" t="n">
-        <v>520.5803211678664</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F8" t="n">
-        <v>331.1605361513813</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G8" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678506</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985591</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020275</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201482</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201482</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="T8" t="n">
-        <v>738.6222485201482</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="U8" t="n">
-        <v>738.6222485201482</v>
+        <v>549.202463503662</v>
       </c>
       <c r="V8" t="n">
-        <v>738.6222485201482</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="W8" t="n">
-        <v>738.6222485201482</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="X8" t="n">
-        <v>738.6222485201482</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.0001061843515</v>
+        <v>170.3628934706925</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>189.4550762544326</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330562</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330562</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330562</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017073</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>722.919292284329</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S9" t="n">
-        <v>571.6362168389253</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T9" t="n">
-        <v>382.2164318224402</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="U9" t="n">
-        <v>382.2164318224402</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="V9" t="n">
-        <v>382.2164318224402</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="W9" t="n">
-        <v>382.2164318224402</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="X9" t="n">
-        <v>378.8748612709177</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="Y9" t="n">
-        <v>189.4550762544326</v>
+        <v>533.4995072678428</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.67250990818521</v>
+        <v>481.9679628959414</v>
       </c>
       <c r="C10" t="n">
-        <v>38.67250990818521</v>
+        <v>313.0317799680345</v>
       </c>
       <c r="D10" t="n">
-        <v>38.67250990818521</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="E10" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>38.67250990818521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7151088594235</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L10" t="n">
-        <v>261.7447676371623</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M10" t="n">
-        <v>447.3950989318193</v>
+        <v>295.5529562639638</v>
       </c>
       <c r="N10" t="n">
-        <v>633.0454302264764</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O10" t="n">
-        <v>634.3723839608029</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652808</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846285</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R10" t="n">
-        <v>612.5614882768605</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S10" t="n">
-        <v>423.1417032603754</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="T10" t="n">
-        <v>233.7219182438903</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="U10" t="n">
-        <v>233.7219182438903</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="V10" t="n">
-        <v>228.0922949246703</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="W10" t="n">
-        <v>38.67250990818521</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="X10" t="n">
-        <v>38.67250990818521</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.67250990818521</v>
+        <v>663.6164277261811</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1208.812782134349</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C11" t="n">
-        <v>839.8502651939375</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="D11" t="n">
-        <v>481.5845665871869</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E11" t="n">
         <v>481.5845665871869</v>
@@ -5032,37 +5032,37 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5144,16 +5144,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199866</v>
@@ -5165,7 +5165,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>917.616325937273</v>
+        <v>844.171363847817</v>
       </c>
       <c r="C13" t="n">
-        <v>748.6801430093661</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D13" t="n">
-        <v>598.5635035970304</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E13" t="n">
-        <v>450.6504100146373</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>450.6504100146373</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V13" t="n">
-        <v>1837.464090846021</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W13" t="n">
-        <v>1548.04692080906</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="X13" t="n">
-        <v>1320.057369911043</v>
+        <v>1222.853893554115</v>
       </c>
       <c r="Y13" t="n">
-        <v>1099.264790767513</v>
+        <v>1025.819828678057</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796265</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C14" t="n">
-        <v>921.7704558796265</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D14" t="n">
-        <v>563.5047572728761</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E14" t="n">
-        <v>563.5047572728761</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>563.5047572728761</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="15">
@@ -5333,70 +5333,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1516.201608216216</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1227.09874134186</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>972.4142531359726</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>682.9970830990119</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>455.0075322009945</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1559.116588708439</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="C17" t="n">
-        <v>1190.154071768027</v>
+        <v>1439.837779452053</v>
       </c>
       <c r="D17" t="n">
-        <v>1190.154071768027</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520486</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794323</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>2755.806928794323</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W17" t="n">
-        <v>2403.038273524208</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X17" t="n">
-        <v>2029.572515263128</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y17" t="n">
-        <v>1639.433183287317</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>372.854934570085</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="C19" t="n">
-        <v>362.8459426266613</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D19" t="n">
-        <v>212.7293032143256</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E19" t="n">
-        <v>212.7293032143256</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F19" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G19" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415546</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.59460854119</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V19" t="n">
-        <v>1071.910120335303</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="W19" t="n">
-        <v>782.4929502983421</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="X19" t="n">
-        <v>554.5033994003247</v>
+        <v>1188.435514885645</v>
       </c>
       <c r="Y19" t="n">
-        <v>554.5033994003247</v>
+        <v>967.6429357421154</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1238.038871968308</v>
+        <v>2209.232076102165</v>
       </c>
       <c r="C20" t="n">
-        <v>869.0763550278959</v>
+        <v>1840.269559161753</v>
       </c>
       <c r="D20" t="n">
-        <v>510.8106564211454</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>481.5845665871869</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2741.012457539435</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2388.243802269321</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X20" t="n">
-        <v>2014.778044008241</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y20" t="n">
-        <v>1624.638712032429</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1091.613680441807</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C22" t="n">
-        <v>922.6774975139006</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D22" t="n">
         <v>772.5608581015648</v>
@@ -5907,19 +5907,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U22" t="n">
-        <v>1837.46409084602</v>
+        <v>1571.927635901259</v>
       </c>
       <c r="V22" t="n">
-        <v>1837.46409084602</v>
+        <v>1571.927635901259</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.044275313594</v>
+        <v>1571.927635901259</v>
       </c>
       <c r="X22" t="n">
-        <v>1494.054724415577</v>
+        <v>1343.938085003241</v>
       </c>
       <c r="Y22" t="n">
-        <v>1273.262145272047</v>
+        <v>1123.145505859711</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1190.154071768027</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C23" t="n">
-        <v>1190.154071768027</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="D23" t="n">
-        <v>1190.154071768027</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520486</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794323</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450752</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180638</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919558</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943746</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.6347488791189</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V25" t="n">
-        <v>1927.294548088492</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.044275313594</v>
+        <v>969.7403902419971</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.054724415577</v>
+        <v>741.7508393439798</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.262145272047</v>
+        <v>741.7508393439798</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1639.433183287317</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C26" t="n">
-        <v>1639.433183287317</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>2403.038273524209</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X26" t="n">
-        <v>2029.572515263129</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y26" t="n">
-        <v>1639.433183287317</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6326,7 +6326,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
         <v>2564.909189125856</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.6375233676408</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>511.7013404397339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>361.5847010273982</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>213.6716074450051</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>213.6716074450051</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.6347488791189</v>
@@ -6426,10 +6426,10 @@
         <v>680.6375233676408</v>
       </c>
       <c r="X28" t="n">
-        <v>680.6375233676408</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y28" t="n">
-        <v>680.6375233676408</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1917.382287315189</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C29" t="n">
-        <v>1548.419770374778</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D29" t="n">
-        <v>1190.154071768027</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E29" t="n">
         <v>1190.154071768027</v>
@@ -6457,58 +6457,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>3046.890114625237</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="W29" t="n">
-        <v>2694.121459355123</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X29" t="n">
-        <v>2694.121459355123</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y29" t="n">
-        <v>2303.982127379311</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>313.9544330261738</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C31" t="n">
-        <v>313.9544330261738</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D31" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E31" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F31" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G31" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J31" t="n">
         <v>111.6347488791189</v>
@@ -6651,22 +6651,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1595.941088184925</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1306.838221310569</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V31" t="n">
-        <v>1052.153733104682</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W31" t="n">
-        <v>762.7365630677212</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X31" t="n">
-        <v>534.7470121697039</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y31" t="n">
-        <v>313.9544330261738</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2303.170539913434</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="C32" t="n">
-        <v>1934.208022973022</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G32" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609169</v>
+        <v>3220.914269860637</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609169</v>
+        <v>2967.383793134473</v>
       </c>
       <c r="V32" t="n">
-        <v>3066.775630150325</v>
+        <v>2636.320905790902</v>
       </c>
       <c r="W32" t="n">
-        <v>3066.775630150325</v>
+        <v>2283.552250520788</v>
       </c>
       <c r="X32" t="n">
-        <v>2693.309871889246</v>
+        <v>1910.086492259708</v>
       </c>
       <c r="Y32" t="n">
-        <v>2303.170539913434</v>
+        <v>1519.947160283896</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.4482993600903</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="C34" t="n">
-        <v>66.51211643218339</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D34" t="n">
-        <v>66.51211643218339</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218339</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218339</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.6347488791189</v>
@@ -6888,22 +6888,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>1356.67533979849</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V34" t="n">
-        <v>1101.990851592603</v>
+        <v>1035.98168704768</v>
       </c>
       <c r="W34" t="n">
-        <v>865.8788942318774</v>
+        <v>1035.98168704768</v>
       </c>
       <c r="X34" t="n">
-        <v>637.8893433338601</v>
+        <v>807.9921361496623</v>
       </c>
       <c r="Y34" t="n">
-        <v>417.09676419033</v>
+        <v>807.9921361496623</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>921.7704558796243</v>
+        <v>2212.771568013854</v>
       </c>
       <c r="C35" t="n">
-        <v>863.2862738200351</v>
+        <v>1843.809051073442</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2862738200351</v>
+        <v>1485.543352466691</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>1099.755099868447</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218339</v>
+        <v>688.7691950788396</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218339</v>
+        <v>273.6967449238361</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218339</v>
@@ -6943,7 +6943,7 @@
         <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
@@ -6955,34 +6955,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520486</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450752</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180638</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919558</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943746</v>
+        <v>2599.371408077976</v>
       </c>
     </row>
     <row r="36">
@@ -7037,7 +7037,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2078.679253373406</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C37" t="n">
-        <v>1909.743070445499</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>1759.626431033163</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E37" t="n">
-        <v>1611.71333745077</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797168</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456654</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609169</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609169</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.605821609169</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.605821609169</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U37" t="n">
-        <v>3253.211506488041</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V37" t="n">
-        <v>2998.527018282154</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="W37" t="n">
-        <v>2709.109848245193</v>
+        <v>1090.005995580987</v>
       </c>
       <c r="X37" t="n">
-        <v>2481.120297347176</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y37" t="n">
-        <v>2260.327718203646</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2098.94140762926</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C38" t="n">
-        <v>1729.978890688848</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D38" t="n">
-        <v>1371.713192082098</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E38" t="n">
-        <v>985.9249394838532</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F38" t="n">
-        <v>574.9390346942457</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G38" t="n">
-        <v>159.8665845392422</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
@@ -7177,16 +7177,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V38" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W38" t="n">
-        <v>2862.546497866151</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="X38" t="n">
-        <v>2489.080739605071</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y38" t="n">
-        <v>2098.94140762926</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>249.793641290342</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C40" t="n">
-        <v>249.793641290342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D40" t="n">
-        <v>99.67700187800625</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
         <v>66.51211643218342</v>
@@ -7359,25 +7359,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V40" t="n">
-        <v>880.2242361621292</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W40" t="n">
-        <v>880.2242361621292</v>
+        <v>1004.259565728816</v>
       </c>
       <c r="X40" t="n">
-        <v>652.2346852641118</v>
+        <v>784.7792908317706</v>
       </c>
       <c r="Y40" t="n">
-        <v>431.4421061205817</v>
+        <v>563.9867116882405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1278.358723975039</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C41" t="n">
-        <v>1278.358723975039</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520486</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450752</v>
+        <v>3029.404953444628</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180638</v>
+        <v>2676.636298174514</v>
       </c>
       <c r="X41" t="n">
-        <v>2055.097896014972</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="Y41" t="n">
-        <v>1664.958564039161</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="42">
@@ -7484,13 +7484,13 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031482</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1953.788709207945</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>1953.788709207945</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>1803.67206979561</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>1655.758976213217</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>1655.758976213217</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>1488.056139587936</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>2030.493003797168</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>3247.995525456654</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>3325.605821609169</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T43" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U43" t="n">
-        <v>2946.67249749234</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V43" t="n">
-        <v>2691.988009286454</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W43" t="n">
-        <v>2402.570839249493</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X43" t="n">
-        <v>2174.581288351475</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y43" t="n">
-        <v>1953.788709207945</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2303.170539913434</v>
+        <v>1238.038871968307</v>
       </c>
       <c r="C44" t="n">
-        <v>1934.208022973022</v>
+        <v>1238.038871968307</v>
       </c>
       <c r="D44" t="n">
-        <v>1575.942324366272</v>
+        <v>879.7731733615562</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.154071768027</v>
+        <v>493.984920763312</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G44" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7669,7 +7669,7 @@
         <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609169</v>
@@ -7681,19 +7681,19 @@
         <v>3325.605821609169</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883006</v>
+        <v>3072.075344883005</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539435</v>
+        <v>2741.012457539434</v>
       </c>
       <c r="W44" t="n">
-        <v>2741.012457539435</v>
+        <v>2388.24380226932</v>
       </c>
       <c r="X44" t="n">
-        <v>2741.012457539435</v>
+        <v>2014.77804400824</v>
       </c>
       <c r="Y44" t="n">
-        <v>2689.770379977556</v>
+        <v>1624.638712032428</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,7 +7742,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
         <v>2407.41198488674</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>231.8553933260934</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C46" t="n">
-        <v>231.8553933260934</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D46" t="n">
-        <v>231.8553933260934</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E46" t="n">
-        <v>231.8553933260934</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F46" t="n">
-        <v>231.8553933260934</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7812,19 +7812,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q46" t="n">
         <v>1927.294548088492</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610488</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046014</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676408</v>
+        <v>680.6375233676399</v>
       </c>
       <c r="X46" t="n">
-        <v>452.6479724696235</v>
+        <v>527.322087337517</v>
       </c>
       <c r="Y46" t="n">
-        <v>231.8553933260934</v>
+        <v>527.322087337517</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>202.1809638361346</v>
+        <v>209.057009577846</v>
       </c>
       <c r="L2" t="n">
-        <v>213.5488567752802</v>
+        <v>220.4249025169917</v>
       </c>
       <c r="M2" t="n">
-        <v>207.0102169888189</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N2" t="n">
-        <v>211.167778269899</v>
+        <v>205.6770306465061</v>
       </c>
       <c r="O2" t="n">
         <v>213.252896592586</v>
       </c>
       <c r="P2" t="n">
-        <v>217.8634090628659</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
         <v>132.5535436227116</v>
       </c>
       <c r="L3" t="n">
-        <v>122.4263620155076</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M3" t="n">
-        <v>129.9234925718064</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
         <v>118.6260055667107</v>
@@ -8075,10 +8075,10 @@
         <v>124.673618687554</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>126.4659658995391</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>136.9643510056005</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>152.4301840838611</v>
+        <v>161.5587848631459</v>
       </c>
       <c r="K5" t="n">
-        <v>166.8968938256253</v>
+        <v>168.5560552681344</v>
       </c>
       <c r="L5" t="n">
-        <v>169.7758478963483</v>
+        <v>186.7317939337314</v>
       </c>
       <c r="M5" t="n">
-        <v>163.5172380485698</v>
+        <v>159.2093082726143</v>
       </c>
       <c r="N5" t="n">
-        <v>161.6737592480527</v>
+        <v>157.1250688248008</v>
       </c>
       <c r="O5" t="n">
-        <v>159.6410521736879</v>
+        <v>161.8387078048823</v>
       </c>
       <c r="P5" t="n">
-        <v>171.0994404210927</v>
+        <v>187.8726982126171</v>
       </c>
       <c r="Q5" t="n">
-        <v>184.0239398835536</v>
+        <v>192.8521137907715</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>112.5750196118077</v>
+        <v>121.2559270580245</v>
       </c>
       <c r="K6" t="n">
-        <v>101.7121144299398</v>
+        <v>117.7366472724222</v>
       </c>
       <c r="L6" t="n">
-        <v>89.97404429432481</v>
+        <v>106.3869412803647</v>
       </c>
       <c r="M6" t="n">
-        <v>85.44307379677468</v>
+        <v>87.21134275747085</v>
       </c>
       <c r="N6" t="n">
-        <v>79.7485366445344</v>
+        <v>74.96538071122839</v>
       </c>
       <c r="O6" t="n">
-        <v>96.23852674641049</v>
+        <v>91.02291524930497</v>
       </c>
       <c r="P6" t="n">
-        <v>91.24961908244765</v>
+        <v>106.8779498866945</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.2974302918996</v>
+        <v>112.312222352371</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>106.9970552288023</v>
+        <v>107.8669084573547</v>
       </c>
       <c r="M7" t="n">
-        <v>116.1204233925541</v>
+        <v>125.336945502757</v>
       </c>
       <c r="N7" t="n">
-        <v>105.857155501328</v>
+        <v>114.7740500834762</v>
       </c>
       <c r="O7" t="n">
-        <v>118.8193927955308</v>
+        <v>127.0660158689567</v>
       </c>
       <c r="P7" t="n">
-        <v>121.9174342545005</v>
+        <v>130.6466247860458</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265832</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8616,16 +8616,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>144.4363991805481</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457085</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>163.8604018711118</v>
+        <v>154.1946371899308</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>8.008520475648547</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>284.1719029921763</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>311.4192314437541</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>26.83633293655782</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>23.52092912479694</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>255.0837053814141</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>330.4099222588437</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>91.26811680410427</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>303.2204130303916</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>194.818776698439</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>59.77663437822517</v>
       </c>
       <c r="C19" t="n">
-        <v>157.3379190746384</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>92.99907917315591</v>
       </c>
       <c r="E20" t="n">
-        <v>352.9965411366429</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>124.1676204716932</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>172.2573809594894</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>265.699779729519</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>243.834623626283</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>119.0629492855995</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>93.80255076437498</v>
       </c>
       <c r="D26" t="n">
-        <v>333.4040210617736</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696645</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>20.3379121563348</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>51.82370855604108</v>
+        <v>55.47844587228434</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>160.8971509712872</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>81.27804930307983</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24970,16 +24970,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>100.2733339085715</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>71.51036892587962</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>154.1998763766951</v>
       </c>
       <c r="W34" t="n">
-        <v>52.77216054947237</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>307.3735515320143</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>89.49498218058432</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>214.5414662356959</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>22.52034756126233</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>202.1868409613323</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>15.69833070840878</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>113.6007260552046</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>8.424183240961838</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>34.51339898723785</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>353.0223854144605</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>121.7545927755959</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25842,13 +25842,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>94.35543628911128</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>278.2857338412146</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>335.5082818697935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.335964134057321</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>73.9273737192155</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>935515.4315542959</v>
+        <v>938275.2055120448</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741073.0343326398</v>
+        <v>741073.0343326399</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>741073.0343326395</v>
+        <v>741073.0343326399</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>741073.0343326395</v>
+        <v>741073.0343326398</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>741073.0343326399</v>
+        <v>741073.0343326397</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>741073.0343326394</v>
+        <v>741073.0343326397</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>741073.0343326398</v>
+        <v>741073.0343326397</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741073.0343326397</v>
+        <v>741073.0343326398</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741073.0343326399</v>
+        <v>741073.0343326395</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553757.9931017205</v>
+        <v>553757.9931017206</v>
       </c>
       <c r="C2" t="n">
-        <v>553772.8968532346</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>460346.0836107428</v>
+        <v>460346.0836107429</v>
       </c>
       <c r="F2" t="n">
         <v>460346.0836107428</v>
@@ -26331,10 +26331,10 @@
         <v>460346.0836107428</v>
       </c>
       <c r="H2" t="n">
-        <v>460346.0836107427</v>
+        <v>460346.0836107429</v>
       </c>
       <c r="I2" t="n">
-        <v>460346.0836107427</v>
+        <v>460346.0836107428</v>
       </c>
       <c r="J2" t="n">
         <v>460346.0836107429</v>
@@ -26343,10 +26343,10 @@
         <v>460346.0836107429</v>
       </c>
       <c r="L2" t="n">
-        <v>460346.0836107429</v>
+        <v>460346.0836107428</v>
       </c>
       <c r="M2" t="n">
-        <v>460346.0836107427</v>
+        <v>460346.0836107428</v>
       </c>
       <c r="N2" t="n">
         <v>460346.0836107429</v>
@@ -26355,7 +26355,7 @@
         <v>460346.0836107428</v>
       </c>
       <c r="P2" t="n">
-        <v>460346.0836107429</v>
+        <v>460346.0836107427</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>36051.26318243808</v>
       </c>
       <c r="C3" t="n">
-        <v>62830.49044566526</v>
+        <v>62467.54687755753</v>
       </c>
       <c r="D3" t="n">
-        <v>436748.2242687926</v>
+        <v>437035.146990882</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336673</v>
+        <v>627134.6436336678</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1799.076112044377</v>
+        <v>1799.076112044347</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2064.493835462343</v>
       </c>
       <c r="L3" t="n">
-        <v>45720.77308869558</v>
+        <v>43690.58748166206</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678773</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>406442.870506277</v>
       </c>
       <c r="C4" t="n">
-        <v>391517.7106055178</v>
+        <v>391503.9179930104</v>
       </c>
       <c r="D4" t="n">
-        <v>271884.2225707668</v>
+        <v>271884.222570767</v>
       </c>
       <c r="E4" t="n">
         <v>8550.515172066862</v>
@@ -26432,7 +26432,7 @@
         <v>8550.515172066862</v>
       </c>
       <c r="G4" t="n">
-        <v>8550.515172066873</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="H4" t="n">
         <v>8550.515172066862</v>
@@ -26441,7 +26441,7 @@
         <v>8550.515172066862</v>
       </c>
       <c r="J4" t="n">
-        <v>8550.515172066873</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="K4" t="n">
         <v>8550.515172066862</v>
@@ -26450,7 +26450,7 @@
         <v>8550.515172066862</v>
       </c>
       <c r="M4" t="n">
-        <v>8550.515172066873</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="N4" t="n">
         <v>8550.515172066862</v>
@@ -26472,34 +26472,34 @@
         <v>34809.12706477298</v>
       </c>
       <c r="C5" t="n">
-        <v>36313.3019861058</v>
+        <v>36730.28230751739</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="J5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.34056139327</v>
       </c>
-      <c r="H5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="I5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139327</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139327</v>
@@ -26508,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139326</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76454.73234823243</v>
+        <v>76438.24340168918</v>
       </c>
       <c r="C6" t="n">
-        <v>63111.39381594572</v>
+        <v>63501.44748030636</v>
       </c>
       <c r="D6" t="n">
-        <v>-211415.0525927817</v>
+        <v>-211701.9753148711</v>
       </c>
       <c r="E6" t="n">
-        <v>-249645.4157563847</v>
+        <v>-253121.6050544462</v>
       </c>
       <c r="F6" t="n">
-        <v>377489.2278772827</v>
+        <v>374013.0385792216</v>
       </c>
       <c r="G6" t="n">
-        <v>377489.227877283</v>
+        <v>374013.0385792214</v>
       </c>
       <c r="H6" t="n">
-        <v>377489.2278772825</v>
+        <v>374013.0385792218</v>
       </c>
       <c r="I6" t="n">
-        <v>377489.2278772825</v>
+        <v>374013.0385792218</v>
       </c>
       <c r="J6" t="n">
-        <v>375690.1517652384</v>
+        <v>372213.9624671774</v>
       </c>
       <c r="K6" t="n">
-        <v>377489.2278772827</v>
+        <v>371948.5447437593</v>
       </c>
       <c r="L6" t="n">
-        <v>331768.4547885872</v>
+        <v>330322.4510975595</v>
       </c>
       <c r="M6" t="n">
-        <v>217032.7860094053</v>
+        <v>213556.5967113443</v>
       </c>
       <c r="N6" t="n">
-        <v>377489.2278772827</v>
+        <v>374013.0385792216</v>
       </c>
       <c r="O6" t="n">
-        <v>377489.2278772829</v>
+        <v>374013.0385792216</v>
       </c>
       <c r="P6" t="n">
-        <v>377489.2278772828</v>
+        <v>374013.0385792216</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>104.020110321548</v>
+        <v>100.7755801184357</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26792,46 +26792,46 @@
         <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
-        <v>6.876045741711437</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022923</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="I4" t="n">
-        <v>831.4014554022923</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022924</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022923</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022923</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022922</v>
       </c>
     </row>
   </sheetData>
@@ -26962,19 +26962,19 @@
         <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>68.99884960242264</v>
+        <v>65.75431939931042</v>
       </c>
       <c r="D3" t="n">
-        <v>444.449830591357</v>
+        <v>447.6943607944688</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803934</v>
+        <v>541.306759680394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.202073660032603e-15</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27014,19 +27014,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>8.021563813148495</v>
       </c>
       <c r="D4" t="n">
-        <v>180.6495414246088</v>
+        <v>172.6279776114599</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359725</v>
+        <v>643.875868235973</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.87604574171155</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>8.021563813148267</v>
       </c>
       <c r="L4" t="n">
-        <v>180.6495414246084</v>
+        <v>172.6279776114602</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359725</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>8.021563813148495</v>
       </c>
       <c r="L4" t="n">
-        <v>180.6495414246088</v>
+        <v>172.6279776114599</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359725</v>
+        <v>643.875868235973</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>198.9917010283464</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>134.1492359435679</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>215.6035000282572</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>343.1845476281136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,16 +27466,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>130.3921426720279</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>105.451506014145</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
         <v>86.80307722268741</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>89.42442281108013</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27517,7 +27517,7 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>198.8066500355929</v>
       </c>
     </row>
     <row r="4">
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5579169048577</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>138.5450022812198</v>
       </c>
       <c r="G4" t="n">
         <v>167.9278262653587</v>
@@ -27557,13 +27557,13 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I4" t="n">
-        <v>153.551289182031</v>
+        <v>147.4948680927315</v>
       </c>
       <c r="J4" t="n">
-        <v>82.01821069278695</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>8.05620490400057</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>73.99778714139502</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>168.39737757448</v>
+        <v>167.577752922068</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>375.0543243305503</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>391.9784361868515</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>335.1922053124283</v>
+        <v>322.203970896679</v>
       </c>
       <c r="I5" t="n">
-        <v>188.2979195236332</v>
+        <v>194.8571938818994</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>123.6011651572866</v>
+        <v>124.4204987065178</v>
       </c>
       <c r="S5" t="n">
-        <v>199.490991138196</v>
+        <v>199.7882161914761</v>
       </c>
       <c r="T5" t="n">
-        <v>221.265304708121</v>
+        <v>206.4247923631671</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3121992040145</v>
+        <v>251.3132426710145</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27703,19 +27703,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>144.5232659594803</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>130.1716028385239</v>
       </c>
       <c r="G6" t="n">
-        <v>137.1197757938398</v>
+        <v>137.126754594654</v>
       </c>
       <c r="H6" t="n">
-        <v>110.0745736428356</v>
+        <v>110.141974166489</v>
       </c>
       <c r="I6" t="n">
-        <v>74.81721101513617</v>
+        <v>67.03592608967099</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>86.26624281573905</v>
+        <v>86.69954064173203</v>
       </c>
       <c r="S6" t="n">
-        <v>167.5272732999534</v>
+        <v>167.6569014642003</v>
       </c>
       <c r="T6" t="n">
-        <v>192.3868482230583</v>
+        <v>199.2910234294552</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9266622540425</v>
+        <v>225.927121385675</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>217.9029775945653</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>199.7165641141781</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>198.8066500355929</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>160.3707753569164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8034021103379</v>
+        <v>167.8092529025075</v>
       </c>
       <c r="H7" t="n">
-        <v>160.5594402468744</v>
+        <v>160.6114591081637</v>
       </c>
       <c r="I7" t="n">
-        <v>149.809515501952</v>
+        <v>149.9854647791962</v>
       </c>
       <c r="J7" t="n">
-        <v>73.22142293281907</v>
+        <v>65.61351012605753</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>63.57896085142921</v>
+        <v>56.04732109895065</v>
       </c>
       <c r="R7" t="n">
-        <v>168.8592362025732</v>
+        <v>169.1223090941239</v>
       </c>
       <c r="S7" t="n">
-        <v>220.7476381765393</v>
+        <v>220.8496015273486</v>
       </c>
       <c r="T7" t="n">
-        <v>227.1441230044925</v>
+        <v>227.1691218437624</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3087978702297</v>
+        <v>271.4115074494882</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>213.7440226548419</v>
       </c>
       <c r="Y7" t="n">
-        <v>213.0046583524588</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>167.1574544543627</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>248.0970110116182</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753912</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637378</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871047</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>357.9020177436148</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,16 +27934,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>109.5553717101475</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.1637893657753</v>
@@ -27952,7 +27952,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550655</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681015</v>
+        <v>7.88401062568137</v>
       </c>
       <c r="U9" t="n">
         <v>225.8637684100909</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>202.4648303574702</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098415</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,13 +28028,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>19.254668629176</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>36.19408632377989</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>246.5643162378002</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>98.99741117027079</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>136.3066737962332</v>
       </c>
     </row>
     <row r="11">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4181712977750668</v>
+        <v>0.4051279602751183</v>
       </c>
       <c r="H5" t="n">
-        <v>4.282596803338905</v>
+        <v>4.149016723167556</v>
       </c>
       <c r="I5" t="n">
-        <v>16.12154895747328</v>
+        <v>15.61869568850651</v>
       </c>
       <c r="J5" t="n">
-        <v>35.49176618453662</v>
+        <v>34.38472921840035</v>
       </c>
       <c r="K5" t="n">
-        <v>53.1929572193552</v>
+        <v>51.53379577684611</v>
       </c>
       <c r="L5" t="n">
-        <v>65.99056707363891</v>
+        <v>63.93223059111578</v>
       </c>
       <c r="M5" t="n">
-        <v>73.42722089044626</v>
+        <v>71.13692495465841</v>
       </c>
       <c r="N5" t="n">
-        <v>74.61535009024968</v>
+        <v>72.2879947717901</v>
       </c>
       <c r="O5" t="n">
-        <v>70.45715924799885</v>
+        <v>68.25950361680438</v>
       </c>
       <c r="P5" t="n">
-        <v>60.13355533417688</v>
+        <v>58.25790709751239</v>
       </c>
       <c r="Q5" t="n">
-        <v>45.15779573260728</v>
+        <v>43.7492620201597</v>
       </c>
       <c r="R5" t="n">
-        <v>26.26795278386307</v>
+        <v>25.44861923463192</v>
       </c>
       <c r="S5" t="n">
-        <v>9.529078448049345</v>
+        <v>9.231853394769267</v>
       </c>
       <c r="T5" t="n">
-        <v>1.830544856010356</v>
+        <v>1.773447646104331</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03345370382200534</v>
+        <v>0.03241023682200946</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2237413693708767</v>
+        <v>0.2167625685566354</v>
       </c>
       <c r="H6" t="n">
-        <v>2.160870593660836</v>
+        <v>2.093470070007505</v>
       </c>
       <c r="I6" t="n">
-        <v>7.703376094567468</v>
+        <v>7.463097206884157</v>
       </c>
       <c r="J6" t="n">
-        <v>21.13865279657043</v>
+        <v>20.47930916350212</v>
       </c>
       <c r="K6" t="n">
-        <v>36.12932454441916</v>
+        <v>35.00240125679669</v>
       </c>
       <c r="L6" t="n">
-        <v>48.58033548554936</v>
+        <v>47.06504805436946</v>
       </c>
       <c r="M6" t="n">
-        <v>56.69096012524363</v>
+        <v>54.92269116454747</v>
       </c>
       <c r="N6" t="n">
-        <v>58.1914011505422</v>
+        <v>56.37633137210492</v>
       </c>
       <c r="O6" t="n">
-        <v>53.2337634397454</v>
+        <v>51.57332919513946</v>
       </c>
       <c r="P6" t="n">
-        <v>42.7247883318826</v>
+        <v>41.39214346411751</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.56038953583332</v>
+        <v>27.66955173365051</v>
       </c>
       <c r="R6" t="n">
-        <v>13.89159133690409</v>
+        <v>13.4582935109111</v>
       </c>
       <c r="S6" t="n">
-        <v>4.155897803884484</v>
+        <v>4.026269639637501</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9018347300519107</v>
+        <v>0.8737052653664379</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01471982693229453</v>
+        <v>0.01426069529977865</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1875772481208242</v>
+        <v>0.1817264559512775</v>
       </c>
       <c r="H7" t="n">
-        <v>1.667732260565147</v>
+        <v>1.615713399275905</v>
       </c>
       <c r="I7" t="n">
-        <v>5.640959425306241</v>
+        <v>5.465010148062057</v>
       </c>
       <c r="J7" t="n">
-        <v>13.26171144214227</v>
+        <v>12.84806043575532</v>
       </c>
       <c r="K7" t="n">
-        <v>21.79306573621939</v>
+        <v>21.11331006415751</v>
       </c>
       <c r="L7" t="n">
-        <v>27.88762105243599</v>
+        <v>27.01776782388358</v>
       </c>
       <c r="M7" t="n">
-        <v>29.40358626679428</v>
+        <v>28.48644799970798</v>
       </c>
       <c r="N7" t="n">
-        <v>28.70443470561668</v>
+        <v>27.80910393661688</v>
       </c>
       <c r="O7" t="n">
-        <v>26.51319139802341</v>
+        <v>25.68620851936786</v>
       </c>
       <c r="P7" t="n">
-        <v>22.68661553635858</v>
+        <v>21.97898881796178</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.70703665855374</v>
+        <v>15.2171125978838</v>
       </c>
       <c r="R7" t="n">
-        <v>8.434155174596329</v>
+        <v>8.171082283045623</v>
       </c>
       <c r="S7" t="n">
-        <v>3.268959860432907</v>
+        <v>3.166996509623627</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8014664237889758</v>
+        <v>0.7764675845190948</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01023148626113588</v>
+        <v>0.009912352142796968</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622682</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590853</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405034</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31691,31 +31691,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647913</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32089,7 +32089,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34210,10 +34210,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623186</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,37 +34438,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34477,7 +34477,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34526,16 +34526,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
         <v>300.7247737883114</v>
@@ -34544,19 +34544,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780294</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M2" t="n">
-        <v>1.385298118318473</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.876045741711437</v>
+        <v>1.385298118318474</v>
       </c>
       <c r="O2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>5.212927593424823</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522132</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2279021592211622</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>6.876045741711437</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.876045741711437</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="M5" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.876045741711437</v>
+        <v>14.29568593648176</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.876045741711437</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>14.29568593648176</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35102,16 +35102,16 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>6.598225711743296</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="N7" t="n">
-        <v>6.876045741711437</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="O7" t="n">
-        <v>6.876045741711437</v>
+        <v>14.29568593648176</v>
       </c>
       <c r="P7" t="n">
-        <v>6.876045741711437</v>
+        <v>14.89760955485993</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973022</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656916007</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.7991677406599</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996323</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855708</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.63945645062408</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L10" t="n">
-        <v>156.595614927009</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>187.5255871663202</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>187.5255871663202</v>
+        <v>177.8598224851391</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400609</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>116.8989542469473</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35737,7 +35737,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923314</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
